--- a/target/classes/com/example/data/Customer.xlsx
+++ b/target/classes/com/example/data/Customer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>20020001</t>
   </si>
@@ -221,6 +221,51 @@
   </si>
   <si>
     <t>0948059121</t>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>Mạnh</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Duy mạnh</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>manh</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>adminne</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>987</t>
   </si>
 </sst>
 </file>
@@ -493,7 +538,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -1151,6 +1196,106 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
